--- a/Webservices/Web API.xlsx
+++ b/Webservices/Web API.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>CRUD</t>
   </si>
@@ -560,13 +560,205 @@
   </si>
   <si>
     <t>Will return HTTP 200</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If a method return type is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, by default status code </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>204 No Content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is returned.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When a new item is created, we should be returning status code </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>201 Item Created</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>201 status code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> we should also include the location i.e URI of the newly created item. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When an item is not found, instead of returning </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and status code </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>200 OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 
+return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>404 Not Found</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> status code along with a meaningful message such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Employee with Id = 101 not found"</t>
+    </r>
+  </si>
+  <si>
+    <t>DELETE request</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If GET/PUT/POST/DELETE does not exist, we get </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>405 Method Not Allowed</t>
+    </r>
+  </si>
+  <si>
+    <t>PUT request</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To use different name for GET/PUT/POST/DELETE instead of default name, decorate 
+the methods with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[HttpGet], [HttpPut], [HttpPost], [HttpDelete]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +825,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -660,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -678,6 +901,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,16 +1203,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C33"/>
+  <dimension ref="A2:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.140625" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" customWidth="1"/>
     <col min="3" max="3" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1200,7 +1424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>51</v>
       </c>
@@ -1208,9 +1432,49 @@
         <v>52</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Webservices/Web API.xlsx
+++ b/Webservices/Web API.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WEB API" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Authentication" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
   <si>
     <t>CRUD</t>
   </si>
@@ -752,13 +752,441 @@
       </rPr>
       <t>[HttpGet], [HttpPut], [HttpPost], [HttpDelete]</t>
     </r>
+  </si>
+  <si>
+    <t>Getting values from client</t>
+  </si>
+  <si>
+    <t>From URI</t>
+  </si>
+  <si>
+    <t>From Body</t>
+  </si>
+  <si>
+    <t>[FromUri]</t>
+  </si>
+  <si>
+    <t>[FromBody]</t>
+  </si>
+  <si>
+    <t>Querry String</t>
+  </si>
+  <si>
+    <t>route data</t>
+  </si>
+  <si>
+    <t>Same origin policy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When a projectA's HTML page has a call to WEB API residing in project B, by default project A does not allow the 
+call treating this as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cross domain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (since both projects have different URL/portnumbers)</t>
+    </r>
+  </si>
+  <si>
+    <t>JSONP</t>
+  </si>
+  <si>
+    <t>JSON with padding</t>
+  </si>
+  <si>
+    <t>Cross domain issue can be overcome using JSONP format instead of JSON</t>
+  </si>
+  <si>
+    <t>Install-Package WebApiContrib.Formatting.Jsonp</t>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> jsonpFormatter = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JsonpMediaTypeFormatter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(config.Formatters.JsonFormatter);</t>
+    </r>
+  </si>
+  <si>
+    <t>config.Formatters.Insert(0, jsonpFormatter);</t>
+  </si>
+  <si>
+    <t>Install</t>
+  </si>
+  <si>
+    <t>Specify in WebApiConfig.cs</t>
+  </si>
+  <si>
+    <t>Method1</t>
+  </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>Cross origin resource sharing</t>
+  </si>
+  <si>
+    <t>Install-Package Microsoft.AspNet.WebApi.Cors</t>
+  </si>
+  <si>
+    <r>
+      <t>EnableCorsAttribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cors = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EnableCorsAttribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>config.EnableCors();</t>
+  </si>
+  <si>
+    <t>Method2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CORS can be used for specifc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>origins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (websites), specific </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> verbs (accept, content-type) or specifc </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>methods</t>
+    </r>
+  </si>
+  <si>
+    <t>Enable SSL</t>
+  </si>
+  <si>
+    <t>&lt;PF4&gt; on project to go to project properties and set 'SSL Enabled' to true</t>
+  </si>
+  <si>
+    <t>Basic Authentication</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a class which Inherits from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AuthorizatioFilterAttribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class</t>
+    </r>
+  </si>
+  <si>
+    <t>Decorate this class as an attribute on the required controllers or methods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Override </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OnAuthorization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method, inside the method read Request Header for Autorization info (username/password)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Decode base64 username/PW to text values &amp; Check username/PW in database, if present  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thread.CurrentPrincipal = new GenericPrincipal(new GenericIdentity(username), null);</t>
+    </r>
+  </si>
+  <si>
+    <t>Identity database tables</t>
+  </si>
+  <si>
+    <t>_MigrationHistory</t>
+  </si>
+  <si>
+    <t>AspNetRoles</t>
+  </si>
+  <si>
+    <t>AspNetUserClaims</t>
+  </si>
+  <si>
+    <t>AspNetUserLogins</t>
+  </si>
+  <si>
+    <t>AspNetUserRoles</t>
+  </si>
+  <si>
+    <t>AspNetUsers</t>
+  </si>
+  <si>
+    <t>Used for Third party authentication provides like Google, Facebook etc</t>
+  </si>
+  <si>
+    <t>Users to Roles relationship</t>
+  </si>
+  <si>
+    <t>Registered users</t>
+  </si>
+  <si>
+    <t>Browser cache</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\AppData\Local\Google\Chrome\User Data\Default\Cache</t>
+  </si>
+  <si>
+    <t>localStorage</t>
+  </si>
+  <si>
+    <t>sessionStorage</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>Application Cache</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +1284,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF2B91AF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FFA31515"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -871,7 +1332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -879,11 +1340,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -902,6 +1378,23 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -1480,24 +1973,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="109.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Webservices/Web API.xlsx
+++ b/Webservices/Web API.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="WEB API" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Authentication" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="237">
   <si>
     <t>CRUD</t>
   </si>
@@ -1180,13 +1181,1564 @@
   </si>
   <si>
     <t>Application Cache</t>
+  </si>
+  <si>
+    <t>Ways of storing data in Browser</t>
+  </si>
+  <si>
+    <t>Register to WEB API application using register page (can be AJAX call to regster built in method which adds userid/Pw to 
+above membership databases)</t>
+  </si>
+  <si>
+    <t>Oauth authentication using OWIN middleware</t>
+  </si>
+  <si>
+    <t>http://localhost:61358/token     body : username=test&amp;password=test123&amp;grant_type=password</t>
+  </si>
+  <si>
+    <t>access_token=90Aj54Wnk_.................................</t>
+  </si>
+  <si>
+    <r>
+      <t>The token expiry is specified using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AccessTokenExpireTimeSpan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>property</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Registration</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Once user is succesfully registered, issue a POST 
+request to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>using username&amp; PW</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Response will return access token</t>
+  </si>
+  <si>
+    <t>4. Token expiry</t>
+  </si>
+  <si>
+    <t>5. Call the method from Fiddler using token access from request Header/Composer   (unit test)</t>
+  </si>
+  <si>
+    <r>
+      <t> $(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#btnLogin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).click(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> () {</t>
+    </r>
+  </si>
+  <si>
+    <t>                $.ajax({</t>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>// Post username, password &amp; the grant type to /token</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    url: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'/token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    method: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'POST'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    contentType: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'application/json'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>                    data: {</t>
+  </si>
+  <si>
+    <r>
+      <t>                        username: $(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#txtUsername'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).val(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        password: $(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#txtPassword'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).val(),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        grant_type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'password'</t>
+    </r>
+  </si>
+  <si>
+    <t>                    },</t>
+  </si>
+  <si>
+    <r>
+      <t>                    success: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (response) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        sessionStorage.setItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"accessToken"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, response.access_token);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        window.location.href = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Data.html"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>// Display errors if any in the Bootstrap alert &lt;div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    error: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (jqXHR) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        $(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#divErrorText'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).text(jqXHR.responseText);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        $(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#divError'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).show(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'fade'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>                    }</t>
+  </si>
+  <si>
+    <t>                });</t>
+  </si>
+  <si>
+    <t>// When the request completes successfully, save the access token in the browser session storage and redirect the user to Data.html page.</t>
+  </si>
+  <si>
+    <t>Data is lost when browser is closed</t>
+  </si>
+  <si>
+    <r>
+      <t>sessionStorage.setItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"accessToken"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, response.access_token)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sessionStorage.getItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"accessToken"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sessionStorage.removeItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'accessToken'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">         - Add item to session storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Retrieve item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Remove item from browser session</t>
+  </si>
+  <si>
+    <t>6. Call method from AJAX and store access token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   is browser session storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Use access token from browser session storage to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    the actual GET request to retrieve tha data</t>
+  </si>
+  <si>
+    <r>
+      <t> $(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#btnLoadEmployees'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).click(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> () {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    url: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'/api/employees'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    method: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'GET'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>                    headers: {</t>
+  </si>
+  <si>
+    <r>
+      <t>                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Authorization'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Bearer '</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                            + sessionStorage.getItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"accessToken"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Authorization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0F06CA"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bearer 90Aj54Wnk_.................................</t>
+    </r>
+  </si>
+  <si>
+    <t>8. Logoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Can be done by closing the browser 
+   (will delete sessionStorage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Remove access token from sessionStorage</t>
+  </si>
+  <si>
+    <r>
+      <t>$(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#btnLogoff'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).click(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> () {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    sessionStorage.removeItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'accessToken'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    window.location.href = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Login.html"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ***Pay attention***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - Add item to local storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Remove item from browser storage</t>
+  </si>
+  <si>
+    <r>
+      <t>localStorage.setItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"accessToken"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, response.access_token)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>localStorage.getItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"accessToken"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>localStorage.removeItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'accessToken'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> -If we do not wish to loose the access token store it in 
+  browsers localStorage</t>
+  </si>
+  <si>
+    <t>Getting user idenetiy details in web controller</t>
+  </si>
+  <si>
+    <t>User.Identity.IsAuthenticated</t>
+  </si>
+  <si>
+    <t>Returns true or false depending on whether the user is authenticated</t>
+  </si>
+  <si>
+    <t>User.Identity.AuthenticationType</t>
+  </si>
+  <si>
+    <t>Authentication Type used</t>
+  </si>
+  <si>
+    <t>User.Identity.Name</t>
+  </si>
+  <si>
+    <t>Logged in username</t>
+  </si>
+  <si>
+    <t>Instead of using User.Identity, we can also use 
+RequestContext.Principal.Identity</t>
+  </si>
+  <si>
+    <t>RequestContext.Principal.Identity.IsAuthenticated</t>
+  </si>
+  <si>
+    <t>RequestContext.Principal.Identity.AuthenticationType</t>
+  </si>
+  <si>
+    <t>RequestContext.Principal.Identity.Name</t>
+  </si>
+  <si>
+    <t>Attribute routing</t>
+  </si>
+  <si>
+    <t>A WEB API method can be decorated with ROUTE attribute and provide the URL route which maps to this method</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ex : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Route("api/students/{id}/courses")]</t>
+    </r>
+  </si>
+  <si>
+    <t>Route Prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminates the need to specify a common route prefix for all methods in a controller, instead use RoutePrefix on controller
+and specify the remainder of the route on the action methods </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RoutePrefix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"api/students"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"{id}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"{id}/courses"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <t>Route Constraints</t>
+  </si>
+  <si>
+    <t>Specify extra info on the Route attribute which can privide details of the parameter type Int, String etc</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"{id:int}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"{name:alpha}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <t>Will be mapped if id is integer</t>
+  </si>
+  <si>
+    <t>Will be mapped if id is string</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Matches an integer with a minimum value</t>
+  </si>
+  <si>
+    <t>{x:min(0)}</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Matches an integer with a maximum value</t>
+  </si>
+  <si>
+    <t>{x:max(100)}</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>Matches a string with the specified length or within a specified range of lengths</t>
+  </si>
+  <si>
+    <t>{x:length(3)} {x:length(1,10)}</t>
+  </si>
+  <si>
+    <t>minlength</t>
+  </si>
+  <si>
+    <t>Matches a string with a minimum length</t>
+  </si>
+  <si>
+    <t>{x:minlength(1)}</t>
+  </si>
+  <si>
+    <t>maxlength</t>
+  </si>
+  <si>
+    <t>Matches a string with a maximum length</t>
+  </si>
+  <si>
+    <t>{x:maxlength(100)}</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Matches an integer within a range of values</t>
+  </si>
+  <si>
+    <t>{x:range(1,100)</t>
+  </si>
+  <si>
+    <t>Other constraints</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Genrate URL link to newly created record via POST request</t>
+  </si>
+  <si>
+    <t>Set a Name for the Route using Name property</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Route</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"{id:int}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Name = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"GetStudentById"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <t>Use the name when genrating route link</t>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HttpResponseMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Post(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> student)</t>
+    </r>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    students.Add(student);</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> response = Request.CreateResponse(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HttpStatusCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Created);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    response.Headers.Location = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2B91AF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Uri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Url.Link(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"GetStudentById"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> { id = student.Id }));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> response;</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>IHttpActionResult</t>
+  </si>
+  <si>
+    <t>With WEB API 2.0, instead of HttpResponseMessage, WEB API method can return IHttpActionResult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1317,8 +2869,48 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F06CA"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0F06CA"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1331,8 +2923,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1355,11 +2959,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1395,12 +3014,35 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0F06CA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1696,16 +3338,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C44"/>
+  <dimension ref="A2:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.85546875" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1947,21 +3589,29 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2116,20 +3766,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B22"/>
+  <dimension ref="A3:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="109.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="132.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B3" t="s">
@@ -2152,7 +3802,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="19" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2195,6 +3845,11 @@
         <v>103</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
@@ -2215,12 +3870,621 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>168</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="108.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Webservices/Web API.xlsx
+++ b/Webservices/Web API.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WEB API" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Authentication" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Routing" sheetId="4" r:id="rId4"/>
+    <sheet name="Versioning" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="255">
   <si>
     <t>CRUD</t>
   </si>
@@ -2732,13 +2733,225 @@
   </si>
   <si>
     <t>With WEB API 2.0, instead of HttpResponseMessage, WEB API method can return IHttpActionResult</t>
+  </si>
+  <si>
+    <t>Helps to change WEB API service without breaking existing clients</t>
+  </si>
+  <si>
+    <t>Versioning</t>
+  </si>
+  <si>
+    <t>Different ways of versioning</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>Query String</t>
+  </si>
+  <si>
+    <t>Version Header</t>
+  </si>
+  <si>
+    <t>Accept Header</t>
+  </si>
+  <si>
+    <t>Media Type</t>
+  </si>
+  <si>
+    <t>Different URLs provided to client for each version</t>
+  </si>
+  <si>
+    <r>
+      <t>"/api/v1/Students/{id}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"/api/v2/Students/{id}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Routes can be sepcifed either conventionally or Route attributes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DefaultHttpControllerSelector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class has a method </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SelectController()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which assigns a controller to URL route</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Define a custom class which inherits from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DefaultHttpControllerSelector </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and override </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SelectController()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>request.GetRouteData()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gets controller name and parameter values from request URI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>routeData.Values[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"controller"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>].ToString(); get the controller name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HttpUtility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ParseQueryString(request.RequestUri.Query); Get the querry string from request object</t>
+    </r>
+  </si>
+  <si>
+    <t>Replace the default controller selector with above custom controller selector in WebApiConfig.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2909,6 +3122,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2978,7 +3199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3032,6 +3253,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3340,7 +3563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -3768,7 +3991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -4267,8 +4490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4490,4 +4713,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="26"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Webservices/Web API.xlsx
+++ b/Webservices/Web API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="WEB API" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Authentication" sheetId="3" r:id="rId3"/>
     <sheet name="Routing" sheetId="4" r:id="rId4"/>
     <sheet name="Versioning" sheetId="5" r:id="rId5"/>
+    <sheet name="WEB Api Performance" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="261">
   <si>
     <t>CRUD</t>
   </si>
@@ -2945,6 +2946,24 @@
   </si>
   <si>
     <t>Replace the default controller selector with above custom controller selector in WebApiConfig.cs</t>
+  </si>
+  <si>
+    <t>Asynchronus programming to handle concurrent HTTP requests</t>
+  </si>
+  <si>
+    <t>Compress the result of WEB API (DotNetZip Nuget package)</t>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>Using high speed JSON serializer (Protobuf-Net, JIL etc)</t>
+  </si>
+  <si>
+    <t>Proper data base structure</t>
+  </si>
+  <si>
+    <t>Factors to improve WEB Api perfromce</t>
   </si>
 </sst>
 </file>
@@ -4719,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4820,4 +4839,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>